--- a/Code_python/Data/extraction/USDJPY.xlsx
+++ b/Code_python/Data/extraction/USDJPY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5421" uniqueCount="5421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="5422">
   <si>
     <t>2000-01-03</t>
   </si>
@@ -16277,6 +16277,9 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
   </si>
 </sst>
 </file>
@@ -16634,7 +16637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5422"/>
+  <dimension ref="A1:B5423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60016,6 +60019,14 @@
         <v>103.7929992675781</v>
       </c>
     </row>
+    <row r="5423" spans="1:2">
+      <c r="A5423" t="s">
+        <v>5421</v>
+      </c>
+      <c r="B5423">
+        <v>103.8280029296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code_python/Data/extraction/USDJPY.xlsx
+++ b/Code_python/Data/extraction/USDJPY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="5422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5457" uniqueCount="5457">
   <si>
     <t>2000-01-03</t>
   </si>
@@ -16280,6 +16280,111 @@
   </si>
   <si>
     <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
   </si>
 </sst>
 </file>
@@ -16637,7 +16742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5423"/>
+  <dimension ref="A1:B5458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60024,7 +60129,287 @@
         <v>5421</v>
       </c>
       <c r="B5423">
-        <v>103.8280029296875</v>
+        <v>103.8239974975586</v>
+      </c>
+    </row>
+    <row r="5424" spans="1:2">
+      <c r="A5424" t="s">
+        <v>5422</v>
+      </c>
+      <c r="B5424">
+        <v>104.556999206543</v>
+      </c>
+    </row>
+    <row r="5425" spans="1:2">
+      <c r="A5425" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B5425">
+        <v>104.5059967041016</v>
+      </c>
+    </row>
+    <row r="5426" spans="1:2">
+      <c r="A5426" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B5426">
+        <v>104.3789978027344</v>
+      </c>
+    </row>
+    <row r="5427" spans="1:2">
+      <c r="A5427" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B5427">
+        <v>104.2639999389648</v>
+      </c>
+    </row>
+    <row r="5428" spans="1:2">
+      <c r="A5428" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B5428">
+        <v>104.1009979248047</v>
+      </c>
+    </row>
+    <row r="5429" spans="1:2">
+      <c r="A5429" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B5429">
+        <v>104.3010025024414</v>
+      </c>
+    </row>
+    <row r="5430" spans="1:2">
+      <c r="A5430" t="s">
+        <v>5428</v>
+      </c>
+      <c r="B5430">
+        <v>104.2890014648438</v>
+      </c>
+    </row>
+    <row r="5431" spans="1:2">
+      <c r="A5431" t="s">
+        <v>5429</v>
+      </c>
+      <c r="B5431">
+        <v>104.4560012817383</v>
+      </c>
+    </row>
+    <row r="5432" spans="1:2">
+      <c r="A5432" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B5432">
+        <v>103.8239974975586</v>
+      </c>
+    </row>
+    <row r="5433" spans="1:2">
+      <c r="A5433" t="s">
+        <v>5431</v>
+      </c>
+      <c r="B5433">
+        <v>104.2009963989258</v>
+      </c>
+    </row>
+    <row r="5434" spans="1:2">
+      <c r="A5434" t="s">
+        <v>5432</v>
+      </c>
+      <c r="B5434">
+        <v>104.0080032348633</v>
+      </c>
+    </row>
+    <row r="5435" spans="1:2">
+      <c r="A5435" t="s">
+        <v>5433</v>
+      </c>
+      <c r="B5435">
+        <v>104.1330032348633</v>
+      </c>
+    </row>
+    <row r="5436" spans="1:2">
+      <c r="A5436" t="s">
+        <v>5434</v>
+      </c>
+      <c r="B5436">
+        <v>104.2870025634766</v>
+      </c>
+    </row>
+    <row r="5437" spans="1:2">
+      <c r="A5437" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B5437">
+        <v>104.1679992675781</v>
+      </c>
+    </row>
+    <row r="5438" spans="1:2">
+      <c r="A5438" t="s">
+        <v>5436</v>
+      </c>
+      <c r="B5438">
+        <v>103.9619979858398</v>
+      </c>
+    </row>
+    <row r="5439" spans="1:2">
+      <c r="A5439" t="s">
+        <v>5437</v>
+      </c>
+      <c r="B5439">
+        <v>104.0120010375977</v>
+      </c>
+    </row>
+    <row r="5440" spans="1:2">
+      <c r="A5440" t="s">
+        <v>5438</v>
+      </c>
+      <c r="B5440">
+        <v>103.6510009765625</v>
+      </c>
+    </row>
+    <row r="5441" spans="1:2">
+      <c r="A5441" t="s">
+        <v>5439</v>
+      </c>
+      <c r="B5441">
+        <v>103.463996887207</v>
+      </c>
+    </row>
+    <row r="5442" spans="1:2">
+      <c r="A5442" t="s">
+        <v>5440</v>
+      </c>
+      <c r="B5442">
+        <v>103.1490020751953</v>
+      </c>
+    </row>
+    <row r="5443" spans="1:2">
+      <c r="A5443" t="s">
+        <v>5441</v>
+      </c>
+      <c r="B5443">
+        <v>103.4729995727539</v>
+      </c>
+    </row>
+    <row r="5444" spans="1:2">
+      <c r="A5444" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B5444">
+        <v>103.3369979858398</v>
+      </c>
+    </row>
+    <row r="5445" spans="1:2">
+      <c r="A5445" t="s">
+        <v>5443</v>
+      </c>
+      <c r="B5445">
+        <v>103.5270004272461</v>
+      </c>
+    </row>
+    <row r="5446" spans="1:2">
+      <c r="A5446" t="s">
+        <v>5444</v>
+      </c>
+      <c r="B5446">
+        <v>103.5250015258789</v>
+      </c>
+    </row>
+    <row r="5447" spans="1:2">
+      <c r="A5447" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B5447">
+        <v>103.6210021972656</v>
+      </c>
+    </row>
+    <row r="5448" spans="1:2">
+      <c r="A5448" t="s">
+        <v>5446</v>
+      </c>
+      <c r="B5448">
+        <v>103.5260009765625</v>
+      </c>
+    </row>
+    <row r="5449" spans="1:2">
+      <c r="A5449" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B5449">
+        <v>103.6910018920898</v>
+      </c>
+    </row>
+    <row r="5450" spans="1:2">
+      <c r="A5450" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B5450">
+        <v>103.552001953125</v>
+      </c>
+    </row>
+    <row r="5451" spans="1:2">
+      <c r="A5451" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B5451">
+        <v>103.1340026855469</v>
+      </c>
+    </row>
+    <row r="5452" spans="1:2">
+      <c r="A5452" t="s">
+        <v>5450</v>
+      </c>
+      <c r="B5452">
+        <v>103.2259979248047</v>
+      </c>
+    </row>
+    <row r="5453" spans="1:2">
+      <c r="A5453" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B5453">
+        <v>103.2440032958984</v>
+      </c>
+    </row>
+    <row r="5454" spans="1:2">
+      <c r="A5454" t="s">
+        <v>5452</v>
+      </c>
+      <c r="B5454">
+        <v>103.1419982910156</v>
+      </c>
+    </row>
+    <row r="5455" spans="1:2">
+      <c r="A5455" t="s">
+        <v>5453</v>
+      </c>
+      <c r="B5455">
+        <v>102.6999969482422</v>
+      </c>
+    </row>
+    <row r="5456" spans="1:2">
+      <c r="A5456" t="s">
+        <v>5454</v>
+      </c>
+      <c r="B5456">
+        <v>103.0279998779297</v>
+      </c>
+    </row>
+    <row r="5457" spans="1:2">
+      <c r="A5457" t="s">
+        <v>5455</v>
+      </c>
+      <c r="B5457">
+        <v>103.7949981689453</v>
+      </c>
+    </row>
+    <row r="5458" spans="1:2">
+      <c r="A5458" t="s">
+        <v>5456</v>
+      </c>
+      <c r="B5458">
+        <v>103.9489974975586</v>
       </c>
     </row>
   </sheetData>
